--- a/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-01-29.xlsx
+++ b/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-01-29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05-bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5B64BD-B929-5244-B478-2FEBFF52C7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C2718-1882-3046-96C0-BFF19F599D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="1860" windowWidth="18900" windowHeight="16940" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -62,16 +62,10 @@
     <t>run</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>oxygen</t>
   </si>
   <si>
     <t>21%</t>
-  </si>
-  <si>
-    <t>DMSO</t>
   </si>
   <si>
     <t>0.5%</t>
@@ -81,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,168 +424,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685FC2E-8A1C-C645-8D24-132AF64BA898}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>58.947000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="C3">
+        <v>70.688999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>70.450999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>70.201999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>69.966999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B7">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>58.947000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="C7">
+        <v>58.439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>70.688999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="C8">
+        <v>70.436000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>70.450999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="C9">
+        <v>69.998999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B10">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>70.201999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="C10">
+        <v>69.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B11">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>69.966999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>-24</v>
-      </c>
-      <c r="D7">
-        <v>58.439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>70.436000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>69.998999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>69.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>72</v>
-      </c>
-      <c r="D11">
         <v>69.049000000000007</v>
       </c>
     </row>
@@ -606,9 +567,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -628,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -645,7 +606,7 @@
         <v>9.9009999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -663,7 +624,7 @@
         <v>62.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -681,7 +642,7 @@
         <v>114.01300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -699,7 +660,7 @@
         <v>204.554</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -717,7 +678,7 @@
         <v>388.41800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -735,7 +696,7 @@
         <v>726.351</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -753,7 +714,7 @@
         <v>1432.9549999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -770,7 +731,7 @@
         <v>2962.3330000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -787,7 +748,7 @@
         <v>132.114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -805,7 +766,7 @@
         <v>168.30799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -823,7 +784,7 @@
         <v>212.98699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -841,7 +802,7 @@
         <v>278.61500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -859,7 +820,7 @@
         <v>249.101</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -877,7 +838,7 @@
         <v>292.37599999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -895,7 +856,7 @@
         <v>332.49599999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -913,7 +874,7 @@
         <v>336.37</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -931,7 +892,7 @@
         <v>362.84699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -949,7 +910,7 @@
         <v>989.548</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -967,7 +928,7 @@
         <v>677.75400000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -985,7 +946,7 @@
         <v>1078.4159999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +964,7 @@
         <v>158.91399999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +982,7 @@
         <v>155.91300000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1000,7 @@
         <v>215.39400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1018,7 @@
         <v>283.983</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1036,7 @@
         <v>291.81299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1054,7 @@
         <v>249.96600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1072,7 @@
         <v>467.64100000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1090,7 @@
         <v>404.404</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1108,7 @@
         <v>379.07</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1126,7 @@
         <v>564.08799999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1144,7 @@
         <v>774.87199999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1162,7 @@
         <v>591.61199999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1179,7 @@
         <v>11.757999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1198,7 @@
       </c>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1217,7 @@
       </c>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1236,7 @@
       </c>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1254,7 @@
         <v>391.85700000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1272,7 @@
         <v>706.35699999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1290,7 @@
         <v>1355.085</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1307,7 @@
         <v>2748.1410000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1324,7 @@
         <v>115.66500000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1342,7 @@
         <v>129.00399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1360,7 @@
         <v>108.736</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1417,7 +1378,7 @@
         <v>173.36199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1396,7 @@
         <v>167.77500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1414,7 @@
         <v>189.036</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1432,7 @@
         <v>227.167</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1450,7 @@
         <v>288.404</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1468,7 @@
         <v>195.804</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1486,7 @@
         <v>418.41500000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1504,7 @@
         <v>357.154</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1522,7 @@
         <v>422.71199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1540,7 @@
         <v>101.532</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1558,7 @@
         <v>134.63300000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1576,7 @@
         <v>137.18600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1594,7 @@
         <v>205.375</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1612,7 @@
         <v>193.393</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1630,7 @@
         <v>162.124</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1648,7 @@
         <v>320.45699999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1666,7 @@
         <v>250.322</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1684,7 @@
         <v>255.81700000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1702,7 @@
         <v>415.89699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1720,7 @@
         <v>451.709</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1788,9 +1749,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1782,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1793,7 @@
         <v>0.2117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1804,7 @@
         <v>0.37519999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1815,7 @@
         <v>0.51680000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1826,7 @@
         <v>0.68430000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1837,7 @@
         <v>0.96960000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1848,7 @@
         <v>1.2732000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1859,7 @@
         <v>1.5439000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1870,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1882,7 @@
         <v>0.8609</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1894,7 @@
         <v>0.87119999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1906,7 @@
         <v>0.88849999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1918,7 @@
         <v>0.90559999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1930,7 @@
         <v>0.91080000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +1942,7 @@
         <v>0.91610000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +1954,7 @@
         <v>0.84750000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +1966,7 @@
         <v>0.85170000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +1978,7 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +1990,7 @@
         <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2002,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2014,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2026,7 @@
         <v>0.89659999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2038,7 @@
         <v>0.89570000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2050,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2062,7 @@
         <v>0.85719999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2074,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2086,7 @@
         <v>0.90239999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2098,7 @@
         <v>0.83420000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2110,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2161,7 +2122,7 @@
         <v>0.82110000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2134,7 @@
         <v>0.75639999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2146,7 @@
         <v>0.85489999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2158,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2170,7 @@
         <v>0.89610000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2182,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2194,7 @@
         <v>0.96679999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2206,7 @@
         <v>0.8629</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2218,7 @@
         <v>0.9748</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2230,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2242,7 @@
         <v>0.87419999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2254,7 @@
         <v>0.94820000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2266,7 @@
         <v>0.86780000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2278,7 @@
         <v>0.85729999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2290,7 @@
         <v>0.91890000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2302,7 @@
         <v>0.93730000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2314,7 @@
         <v>0.9022</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2326,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2377,7 +2338,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2350,7 @@
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2362,7 @@
         <v>0.94920000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2413,7 +2374,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2386,7 @@
         <v>0.84789999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2398,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2410,7 @@
         <v>0.94479999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2461,7 +2422,7 @@
         <v>0.81869999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2484,9 +2445,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2517,7 +2478,7 @@
         <v>1864.4259999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2489,7 @@
         <v>2474.3969999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2500,7 @@
         <v>3200.1959999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2511,7 @@
         <v>4827.6959999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2522,7 @@
         <v>8771.6039999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2533,7 @@
         <v>17807.401999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2544,7 @@
         <v>27886.285</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2555,7 @@
         <v>46039.964999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2566,7 @@
         <v>2721.134</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2578,7 @@
         <v>2772.2460000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2590,7 @@
         <v>2687.3969999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2602,7 @@
         <v>4034.462</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2614,7 @@
         <v>4216.7759999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2626,7 @@
         <v>4105.5749999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2638,7 @@
         <v>7463.3779999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2650,7 @@
         <v>7356.643</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2662,7 @@
         <v>7547.8209999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2674,7 @@
         <v>16843.039000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2686,7 @@
         <v>13206.236000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2698,7 @@
         <v>15400.203</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2710,7 @@
         <v>2717.1260000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2761,7 +2722,7 @@
         <v>2667.2289999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2734,7 @@
         <v>2712.3110000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2746,7 @@
         <v>4738.4799999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2758,7 @@
         <v>4611.317</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2809,7 +2770,7 @@
         <v>4426.1289999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2782,7 @@
         <v>9517.2579999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2833,7 +2794,7 @@
         <v>7653.6459999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2806,7 @@
         <v>8661.8880000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2857,7 +2818,7 @@
         <v>16952.865000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2830,7 @@
         <v>17400.187000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2842,7 @@
         <v>16708.898000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2854,7 @@
         <v>2842.3290000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2905,7 +2866,7 @@
         <v>2835.1149999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2878,7 @@
         <v>2828.9340000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2890,7 @@
         <v>3998.835</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2902,7 @@
         <v>3828.1790000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2914,7 @@
         <v>4176.1589999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2926,7 @@
         <v>5810.2060000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2938,7 @@
         <v>5513.54</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +2950,7 @@
         <v>6466.4080000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +2962,7 @@
         <v>9127.3709999999992</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +2974,7 @@
         <v>8394.7009999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +2986,7 @@
         <v>8310.7919999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +2998,7 @@
         <v>2801.2260000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +3010,7 @@
         <v>2811.2330000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3022,7 @@
         <v>2982.607</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3034,7 @@
         <v>4411.8969999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3046,7 @@
         <v>3924.4549999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3058,7 @@
         <v>3795.6729999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3070,7 @@
         <v>6216.8559999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3082,7 @@
         <v>5558.1109999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3094,7 @@
         <v>5773.3190000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3145,7 +3106,7 @@
         <v>9640.0169999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3118,7 @@
         <v>8117.7219999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
